--- a/biology/Botanique/Libertia_chilensis/Libertia_chilensis.xlsx
+++ b/biology/Botanique/Libertia_chilensis/Libertia_chilensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Libertia chilensis est une plante indigène chilienne herbacée, pérenne du genre Libertia et de la famille des iridacées.
-Ses noms vernaculaires en langue mapuche sont calle-calle[1] et tequel-tequel[2]. Elle est l'éponyme du Rio Calle-calle, un grand cours d'eau de la région des fleuves (Región de Los Ríos) au Chili.
+Ses noms vernaculaires en langue mapuche sont calle-calle et tequel-tequel. Elle est l'éponyme du Rio Calle-calle, un grand cours d'eau de la région des fleuves (Región de Los Ríos) au Chili.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante atteint normalement un grand développement, avec des rhizomes très ramifiés et des feuilles linéaires persistantes. Ses inflorescences sont disposées en verticilles et ses fleurs se présentent sous forme de tépales différenciés.
 </t>
@@ -543,9 +557,11 @@
           <t>Emplacement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La calle-calle est native de la partie continentale du Chili, où on la trouve principalement de la région du Maule à celle de Magallanes et de l'Antarctique chilien ainsi que dans l'archipel Juan Fernández[2],[3]. On peut la rencontrer aussi en Argentine.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La calle-calle est native de la partie continentale du Chili, où on la trouve principalement de la région du Maule à celle de Magallanes et de l'Antarctique chilien ainsi que dans l'archipel Juan Fernández,. On peut la rencontrer aussi en Argentine.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Libertia chilensis a été décrite en 1927 par Juan Ignacio Molina et Hugo Gunckel et publiée dans la Revue Chilienne d'Histoire Naturelle[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Libertia chilensis a été décrite en 1927 par Juan Ignacio Molina et Hugo Gunckel et publiée dans la Revue Chilienne d'Histoire Naturelle.
 Synonymie
 Strumaria chilensis Molina, Sag. Stor. Nat. Chili, ed. 2: 130 (1810).
 Choeradodia chilensis (Molina) Herb., Amaryllidaceae: 87 (1837).
@@ -593,7 +611,7 @@
 Libertia formosa var. crassa (Graham) Baker, J. Linn. Soc., Bot. 15: 153 (1877).
 Orthrosanthus chilensis Klotzsch Ex Baker, J. Linn. Soc., Bot. 16: 121 (1877), nom. nud.
 Tekel formosa (Graham) Kuntze, Revis. Gène. Pl. 2: 702 (1891).
-Libertia formosa var. grandiflora Johow, Estud. H. Juan Fernandez: 150 (1896)[5].</t>
+Libertia formosa var. grandiflora Johow, Estud. H. Juan Fernandez: 150 (1896).</t>
         </is>
       </c>
     </row>
